--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\ISW 713- Proyecto 2\API TubeKids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382BECF1-7FBC-4CBF-8F39-E8CFDEB5D12E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05ABFA0-907C-42B9-8A0A-A6F570BFED08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5030" xr2:uid="{FB56E371-D056-45C6-BF9D-DE44969B359B}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
-  <si>
-    <t>Keilor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -107,9 +104,6 @@
     <t>No utilizó REST</t>
   </si>
   <si>
-    <t>Uno o más errores</t>
-  </si>
-  <si>
     <t>Usa el patrón REST de acuerdo a lo visto en clases</t>
   </si>
   <si>
@@ -119,12 +113,6 @@
     <t>La aplicación no permite seleccionar videos de youtube ni subir archivos.</t>
   </si>
   <si>
-    <t>La aplicación soporta subir videos únicamente de Youtube</t>
-  </si>
-  <si>
-    <t>La aplicación soporta videos de Youtube y en Archivo</t>
-  </si>
-  <si>
     <t>Técnicos (Repositorio)</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Código desordenado, no cumple convenciones de código ni documentación</t>
   </si>
   <si>
-    <t>Existen Convenciones de Código, estilo  y documentación mínima</t>
-  </si>
-  <si>
     <t>Existen convenciones de Código, estilo y documentación básica</t>
   </si>
   <si>
@@ -179,13 +164,16 @@
     <t>86pts</t>
   </si>
   <si>
-    <t>Encargado</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Ambos</t>
+    <t>Uno o más errores relacionados al uso de REST</t>
+  </si>
+  <si>
+    <t>4 pt</t>
+  </si>
+  <si>
+    <t>La aplicación soporta subir videos Youtube</t>
+  </si>
+  <si>
+    <t>Existen Convenciones de Código, estilo  y documentación mínima</t>
   </si>
 </sst>
 </file>
@@ -201,15 +189,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -286,28 +274,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -334,55 +300,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,524 +646,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56320562-6291-4B3B-A30F-B9471462252E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="57.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <f ca="1">SUMIF(F2:G29,H1,G2:G29)</f>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="140.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="154.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I3" ca="1" si="0">SUMIF(F3:G30,H2,G3:G30)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="140.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="196.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="182.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
